--- a/upload/uploadModal.xlsx
+++ b/upload/uploadModal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22050" windowHeight="10950"/>
+    <workbookView windowWidth="21255" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="xlsWorksheetName" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>用户名</t>
   </si>
@@ -50,10 +50,13 @@
     <t>张三</t>
   </si>
   <si>
-    <t>男</t>
+    <t>啊啊啊啊啊</t>
   </si>
   <si>
     <t>李四</t>
+  </si>
+  <si>
+    <t>李四从vv</t>
   </si>
 </sst>
 </file>
@@ -61,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -80,6 +83,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -87,10 +103,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color rgb="FF44546A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF44546A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -107,11 +144,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -119,90 +174,38 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="32">
@@ -214,13 +217,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,163 +331,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,11 +407,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF5B9BD5"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF5B9BD5"/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFACCCEA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,6 +418,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
@@ -440,8 +467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFACCCEA"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,30 +484,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,10 +510,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -715,6 +718,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -982,7 +990,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1029,18 +1037,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="24" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>123</v>
@@ -1061,18 +1069,18 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="24" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>123</v>

--- a/upload/uploadModal.xlsx
+++ b/upload/uploadModal.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="7830"/>
+    <workbookView windowWidth="20670" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="xlsWorksheetName" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:J3"/>
+  <oleSize ref="A1:J12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>用户名</t>
   </si>
@@ -50,13 +50,40 @@
     <t>张三</t>
   </si>
   <si>
-    <t>啊啊啊啊啊</t>
+    <t>111111111111111111</t>
   </si>
   <si>
     <t>李四</t>
   </si>
   <si>
-    <t>李四从vv</t>
+    <t>222222222222222222</t>
+  </si>
+  <si>
+    <t>注：</t>
+  </si>
+  <si>
+    <t>1、用户名不能重复</t>
+  </si>
+  <si>
+    <t>2、角色请输入数字编码，与角色管理里面的角色编码对应</t>
+  </si>
+  <si>
+    <t>3、性别：1：男，0：女</t>
+  </si>
+  <si>
+    <t>4、身份证为18位正确的身份证编码</t>
+  </si>
+  <si>
+    <t>5、手机为正常11位号码</t>
+  </si>
+  <si>
+    <t>6、单位为组织机构管理里对应的机构编码</t>
+  </si>
+  <si>
+    <t>7、到期时间格式为年月日</t>
+  </si>
+  <si>
+    <t>8、严格遵守以上规定，否则无法上传</t>
   </si>
 </sst>
 </file>
@@ -64,12 +91,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,21 +110,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color rgb="FF44546A"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -109,6 +161,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -116,18 +174,57 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color rgb="FF44546A"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -138,65 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -217,37 +256,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,133 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,24 +441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,6 +455,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,6 +532,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0">
@@ -510,10 +549,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,147 +561,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,17 +1038,17 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="4.625" customWidth="1"/>
@@ -1037,12 +1088,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="24" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1050,8 +1101,8 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>123</v>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>13325623568</v>
@@ -1062,31 +1113,31 @@
       <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>42892</v>
       </c>
     </row>
-    <row r="3" ht="24" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="1">
-        <v>13325623568</v>
+        <v>13325623599</v>
       </c>
       <c r="G3" s="1">
         <v>12345678</v>
@@ -1094,15 +1145,138 @@
       <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>42892</v>
       </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" ht="18.75" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" ht="18.75" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" ht="18.75" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" ht="18.75" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" ht="18.75" spans="1:10">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
   </sheetData>
   <sheetProtection objects="1" scenarios="1"/>
+  <mergeCells count="7">
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+  </mergeCells>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
